--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1484533.642601211</v>
+        <v>1528252.40320309</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.0964539</v>
+        <v>5301029.81102974</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3505190.11917867</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7631375.296111107</v>
+        <v>8089703.144527479</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>80.39425687308933</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>177.8631473336253</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -823,19 +825,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>123.9951941189219</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>164.5078794940942</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>302.3398778399651</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
@@ -905,7 +907,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.1130253044601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>134.651955369897</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>130.0386824366345</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>36.63835056633977</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1145,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>247.2139562173939</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>180.6077930059086</v>
       </c>
       <c r="Y10" t="n">
-        <v>209.4004418338068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,22 +1372,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>355.4445328256823</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -1436,7 +1438,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>130.3562745862571</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>61.62463035284607</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1607,13 +1609,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>20.46317479882103</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1670,10 +1672,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8681787215774</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>28.01490760909618</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
@@ -1819,13 +1821,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1844,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>49.02746394088942</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>359.0841816924169</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2005,13 +2007,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>143.0090325268978</v>
       </c>
       <c r="E19" t="n">
-        <v>57.99323883134765</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -2099,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>39.93142548241837</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2147,7 +2149,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>115.7881368226909</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>170.8848289321288</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2369,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>183.6192611853836</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>64.11347434218861</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,25 +2526,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>187.6971066458113</v>
+        <v>314.0518665500862</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2606,13 +2608,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.534284390763795</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
@@ -2767,10 +2769,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>124.299245899289</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2849,13 +2851,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="X29" t="n">
-        <v>261.9522503562252</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2959,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>224.1861390858674</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>28.01490760909618</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3041,10 +3043,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>342.0795732272093</v>
+        <v>269.9562877695847</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -3089,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>267.3255101416902</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>137.352133973013</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3269,13 +3271,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>374.7552726386488</v>
+        <v>368.1319780410717</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3433,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>63.20137170005468</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>122.1857609060769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3514,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -3521,7 +3523,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>59.82422708687632</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>139.5914153473479</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>136.1769805884533</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>146.4550137685133</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3755,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>39.93142548241784</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>84.11886540782629</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>169.3824387139007</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>179.9462302981024</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3980,10 +3982,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>370.0990297772408</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3995,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>71.36683641495289</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>113.4893057671151</v>
+        <v>128.7560630900389</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4141,7 +4143,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -4153,7 +4155,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2117.27467387779</v>
+        <v>555.1974103293671</v>
       </c>
       <c r="C2" t="n">
-        <v>1707.15008319106</v>
+        <v>549.1132236830413</v>
       </c>
       <c r="D2" t="n">
-        <v>1302.686153284121</v>
+        <v>144.6492937761018</v>
       </c>
       <c r="E2" t="n">
-        <v>888.3459378010175</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>467.315525754705</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>312.7727131152915</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1025.36411292753</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M2" t="n">
-        <v>1750.381228315802</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
-        <v>2475.398343704075</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2707.155598323719</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2707.155598323719</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>2527.495853542279</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W2" t="n">
-        <v>2527.495853542279</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="X2" t="n">
-        <v>2527.495853542279</v>
+        <v>962.3148590053625</v>
       </c>
       <c r="Y2" t="n">
-        <v>2527.495853542279</v>
+        <v>561.3781859534525</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161367</v>
       </c>
       <c r="C3" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650825</v>
       </c>
       <c r="D3" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844749</v>
       </c>
       <c r="E3" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768029</v>
       </c>
       <c r="F3" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593075</v>
       </c>
       <c r="G3" t="n">
-        <v>150.083045991581</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>58.5872416475372</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>514.3934979128359</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>514.3934979128359</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M3" t="n">
-        <v>514.3934979128359</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N3" t="n">
-        <v>1239.410613301109</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>1239.410613301109</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P3" t="n">
-        <v>1801.116505789639</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
-        <v>2075.516918135407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R3" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517234</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>809.5773284359336</v>
+        <v>201.259730306692</v>
       </c>
       <c r="C4" t="n">
-        <v>809.5773284359336</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D4" t="n">
-        <v>650.0826837588436</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>489.1718686271631</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>324.5407427377544</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1401.594370148297</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1276.346699321104</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1276.346699321104</v>
+        <v>1404.994407003892</v>
       </c>
       <c r="V4" t="n">
-        <v>1276.346699321104</v>
+        <v>1131.108661943414</v>
       </c>
       <c r="W4" t="n">
-        <v>997.277034829978</v>
+        <v>852.0389974522884</v>
       </c>
       <c r="X4" t="n">
-        <v>997.277034829978</v>
+        <v>613.6951353119717</v>
       </c>
       <c r="Y4" t="n">
-        <v>997.277034829978</v>
+        <v>388.9594367007364</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1799.586032520313</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>1389.461441833583</v>
+        <v>1776.679689856052</v>
       </c>
       <c r="D5" t="n">
-        <v>984.9975119266436</v>
+        <v>1372.215759949112</v>
       </c>
       <c r="E5" t="n">
-        <v>570.6572964435403</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F5" t="n">
-        <v>553.6672884376319</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>144.9390043304641</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>144.9390043304641</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>318.9660128400926</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1031.557412652331</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1031.557412652331</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>1756.574528040604</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>2400.205384457709</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2707.155598323719</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2707.155598323719</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2357.3180436602</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1973.557742795368</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1973.557742795368</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1805.766808144399</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>251.4000992101705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>251.4000992101705</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>912.4882711294587</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M6" t="n">
-        <v>1401.119346952143</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N6" t="n">
-        <v>1401.119346952143</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O6" t="n">
-        <v>2105.076437498037</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1997.798203810093</v>
+        <v>833.9071198972739</v>
       </c>
       <c r="C7" t="n">
-        <v>1997.798203810093</v>
+        <v>662.8137474589904</v>
       </c>
       <c r="D7" t="n">
-        <v>1997.798203810093</v>
+        <v>503.3191027819004</v>
       </c>
       <c r="E7" t="n">
-        <v>1997.798203810093</v>
+        <v>342.4082876502199</v>
       </c>
       <c r="F7" t="n">
-        <v>1833.167077920684</v>
+        <v>177.7771617608112</v>
       </c>
       <c r="G7" t="n">
-        <v>1665.916686846227</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>1516.309231651684</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>1399.96318575601</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>1414.045735161221</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>1568.598062883459</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>1828.495163163519</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>2117.759219604013</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>2398.598001998263</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>2658.158612324737</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>2863.834052574349</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>2929.36208237686</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>2929.36208237686</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>2929.36208237686</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>2798.009877895411</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U7" t="n">
-        <v>2515.211730441535</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="V7" t="n">
-        <v>2515.211730441535</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="W7" t="n">
-        <v>2236.142065950409</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="X7" t="n">
-        <v>1997.798203810093</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="Y7" t="n">
-        <v>1997.798203810093</v>
+        <v>1021.606826291318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1743.03903490115</v>
+        <v>2455.613655069904</v>
       </c>
       <c r="C8" t="n">
-        <v>1332.91444421442</v>
+        <v>2045.489064383174</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.906009298925</v>
+        <v>1641.025134476234</v>
       </c>
       <c r="E8" t="n">
-        <v>881.5657938158222</v>
+        <v>1226.684918993131</v>
       </c>
       <c r="F8" t="n">
-        <v>460.5353817695098</v>
+        <v>805.6545069468186</v>
       </c>
       <c r="G8" t="n">
-        <v>455.8475017027461</v>
+        <v>396.9262228396508</v>
       </c>
       <c r="H8" t="n">
-        <v>144.9390043304641</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J8" t="n">
-        <v>312.7727131152915</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="K8" t="n">
-        <v>850.932214224331</v>
+        <v>524.2900591047157</v>
       </c>
       <c r="L8" t="n">
-        <v>850.932214224331</v>
+        <v>1236.881458916954</v>
       </c>
       <c r="M8" t="n">
-        <v>1560.714110571482</v>
+        <v>2013.200049908708</v>
       </c>
       <c r="N8" t="n">
-        <v>2285.731225959755</v>
+        <v>2766.381066547326</v>
       </c>
       <c r="O8" t="n">
-        <v>2929.36208237686</v>
+        <v>3410.011922964431</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3939.168620883582</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4260.329627678874</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="S8" t="n">
-        <v>2794.081007170961</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="T8" t="n">
-        <v>2794.081007170961</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="U8" t="n">
-        <v>2537.020515430471</v>
+        <v>4300.886273368439</v>
       </c>
       <c r="V8" t="n">
-        <v>2537.020515430471</v>
+        <v>4051.175206482183</v>
       </c>
       <c r="W8" t="n">
-        <v>2153.26021456564</v>
+        <v>3667.414905617351</v>
       </c>
       <c r="X8" t="n">
-        <v>2153.26021456564</v>
+        <v>3266.771507786304</v>
       </c>
       <c r="Y8" t="n">
-        <v>2153.26021456564</v>
+        <v>2865.834834734394</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>764.8485673539033</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>630.8534961028489</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>513.9563383222413</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>393.4635223145693</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>284.5036424970739</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>177.5135298114126</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="K9" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="L9" t="n">
-        <v>719.6754135668255</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="M9" t="n">
-        <v>1380.059322109764</v>
+        <v>554.8917386603569</v>
       </c>
       <c r="N9" t="n">
-        <v>2105.076437498037</v>
+        <v>1428.549830771975</v>
       </c>
       <c r="O9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2024.516911432178</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1667.824236757405</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1454.112709750439</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1240.879541486767</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>905.1515999894899</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>670.1524305479933</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="C10" t="n">
-        <v>499.0590581097098</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="D10" t="n">
-        <v>339.5644134326198</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="E10" t="n">
-        <v>339.5644134326198</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="G10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>100.1002748725793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>254.6526025948173</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>514.5497028748778</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>803.813759315371</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1084.652541709621</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1344.213152036095</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1549.888592285708</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1530.143903763618</v>
       </c>
       <c r="S10" t="n">
-        <v>1587.986138268387</v>
+        <v>1343.752135643529</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.437399245089</v>
+        <v>1104.203396620231</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.437399245089</v>
+        <v>821.4052491663549</v>
       </c>
       <c r="V10" t="n">
-        <v>1348.437399245089</v>
+        <v>547.5195041058769</v>
       </c>
       <c r="W10" t="n">
-        <v>1069.367734753964</v>
+        <v>268.4498396147512</v>
       </c>
       <c r="X10" t="n">
-        <v>1069.367734753964</v>
+        <v>86.01772546736878</v>
       </c>
       <c r="Y10" t="n">
-        <v>857.8521369420376</v>
+        <v>86.01772546736878</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>773.9596689267587</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>773.9596689267587</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
-        <v>369.4957390198192</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E11" t="n">
-        <v>369.4957390198192</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F11" t="n">
-        <v>369.4957390198192</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G11" t="n">
-        <v>369.4957390198192</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>486.4050582743873</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1198.996458086625</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1198.996458086625</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>1924.013573474898</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2567.644429892003</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>2567.644429892003</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>2707.155598323719</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>2450.095106583229</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>2100.25755191971</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>1716.497251054878</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>1315.853853223831</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>1184.180848591248</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>783.60435703581</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N12" t="n">
-        <v>1508.621472424083</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>281.7451581457289</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C13" t="n">
-        <v>281.7451581457289</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D13" t="n">
-        <v>281.7451581457289</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E13" t="n">
-        <v>120.8343430140484</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F13" t="n">
-        <v>120.8343430140484</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G13" t="n">
-        <v>120.8343430140484</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W13" t="n">
-        <v>520.0890202860455</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X13" t="n">
-        <v>281.7451581457289</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y13" t="n">
-        <v>281.7451581457289</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1306.276071390389</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C14" t="n">
-        <v>1306.276071390389</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D14" t="n">
-        <v>1285.606197856226</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E14" t="n">
-        <v>1285.606197856226</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F14" t="n">
-        <v>864.5757858099139</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G14" t="n">
-        <v>455.8475017027461</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H14" t="n">
-        <v>144.9390043304641</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>312.7727131152915</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>807.5660650696793</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1520.157464881917</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>1520.157464881917</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2245.17458027019</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2888.805436687295</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2888.805436687295</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2888.805436687295</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>2707.155598323719</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U14" t="n">
-        <v>2450.095106583229</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V14" t="n">
-        <v>2100.25755191971</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W14" t="n">
-        <v>1716.497251054878</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X14" t="n">
-        <v>1716.497251054878</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y14" t="n">
-        <v>1716.497251054878</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>514.3934979128359</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>514.3934979128359</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>514.3934979128359</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>839.4134544636129</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O15" t="n">
-        <v>1543.370545009507</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>797.7032483092737</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="C16" t="n">
-        <v>656.4222597016197</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="D16" t="n">
-        <v>656.4222597016197</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U16" t="n">
-        <v>1076.772912800399</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V16" t="n">
-        <v>1076.772912800399</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W16" t="n">
-        <v>797.7032483092737</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="X16" t="n">
-        <v>797.7032483092737</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="Y16" t="n">
-        <v>797.7032483092737</v>
+        <v>554.7454763291312</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2503.174400507722</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2093.049809820992</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1688.585879914052</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1274.245664430949</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>853.2152523846366</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5558,7 +5560,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2913.395580172211</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>3071.501944945938</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>3945.160037057556</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>4100.47899204261</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>647.0418698179784</v>
+        <v>408.7906383378939</v>
       </c>
       <c r="C19" t="n">
-        <v>475.9484973796949</v>
+        <v>237.6972658996104</v>
       </c>
       <c r="D19" t="n">
-        <v>316.4538527026049</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>257.8748235800315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5695,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1297.821136963575</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1297.821136963575</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1297.821136963575</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="W19" t="n">
-        <v>1297.821136963575</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="X19" t="n">
-        <v>1059.477274823258</v>
+        <v>821.2260433431736</v>
       </c>
       <c r="Y19" t="n">
-        <v>834.7415762120228</v>
+        <v>596.4903447319383</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2503.174400507722</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>2093.049809820992</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1688.585879914052</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1274.245664430949</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>853.2152523846366</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>444.4869682774688</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>133.5784709051868</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M21" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N21" t="n">
-        <v>874.0699105066985</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O21" t="n">
-        <v>1578.027001052593</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3460.947194116427</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="C22" t="n">
-        <v>3460.947194116427</v>
+        <v>377.4518027273934</v>
       </c>
       <c r="D22" t="n">
-        <v>3460.947194116427</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E22" t="n">
-        <v>3300.036378984746</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F22" t="n">
-        <v>3300.036378984746</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U22" t="n">
-        <v>3978.360720747869</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V22" t="n">
-        <v>3978.360720747869</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W22" t="n">
-        <v>3699.291056256743</v>
+        <v>786.8890373059935</v>
       </c>
       <c r="X22" t="n">
-        <v>3460.947194116427</v>
+        <v>548.5451751656769</v>
       </c>
       <c r="Y22" t="n">
-        <v>3460.947194116427</v>
+        <v>548.5451751656769</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C23" t="n">
         <v>2139.066799289355</v>
@@ -5987,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6017,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4341.429808127883</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U23" t="n">
-        <v>4084.369316387393</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V23" t="n">
-        <v>3734.531761723874</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W23" t="n">
-        <v>3350.771460859042</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X23" t="n">
-        <v>2950.128063027995</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y23" t="n">
-        <v>2549.191389976085</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>242.9542576166784</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>242.9542576166784</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>1085.931338311245</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N24" t="n">
-        <v>1085.931338311245</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>1789.888428857139</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3839.946860394509</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3839.946860394509</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>4576.912166206539</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>4576.912166206539</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>4576.912166206539</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>4303.026421146061</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W25" t="n">
-        <v>4303.026421146061</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X25" t="n">
-        <v>4064.682559005744</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="Y25" t="n">
-        <v>3839.946860394509</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2324.444211508952</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C26" t="n">
-        <v>1914.319620822223</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D26" t="n">
-        <v>1509.855690915283</v>
+        <v>1637.486761525662</v>
       </c>
       <c r="E26" t="n">
         <v>1320.262653899312</v>
@@ -6221,13 +6223,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6254,22 +6256,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T26" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3920.005762921231</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W26" t="n">
-        <v>3536.245462056399</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X26" t="n">
-        <v>3135.602064225352</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2734.665391173442</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6305,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>697.5409622935802</v>
+        <v>573.4391700005397</v>
       </c>
       <c r="C28" t="n">
-        <v>526.4475898552967</v>
+        <v>402.3457975622561</v>
       </c>
       <c r="D28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="E28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6406,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S28" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T28" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U28" t="n">
-        <v>1196.702087168085</v>
+        <v>985.8745750058193</v>
       </c>
       <c r="V28" t="n">
-        <v>922.8163421076072</v>
+        <v>985.8745750058193</v>
       </c>
       <c r="W28" t="n">
-        <v>922.8163421076072</v>
+        <v>985.8745750058193</v>
       </c>
       <c r="X28" t="n">
-        <v>922.8163421076072</v>
+        <v>985.8745750058193</v>
       </c>
       <c r="Y28" t="n">
-        <v>698.0806434963719</v>
+        <v>761.138876394584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2238.282892603803</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1828.158301917073</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
@@ -6497,16 +6499,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X29" t="n">
-        <v>3049.440745320202</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2648.504072268292</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C30" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D30" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E30" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H30" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>3608.383329301262</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>3608.383329301262</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N30" t="n">
-        <v>3608.383329301262</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O30" t="n">
-        <v>4312.340419847156</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>4312.340419847156</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S30" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T30" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U30" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V30" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W30" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X30" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y30" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3730.621005964372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="C31" t="n">
-        <v>3730.621005964372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="D31" t="n">
-        <v>3730.621005964372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>4435.734238989859</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U31" t="n">
-        <v>4435.734238989859</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V31" t="n">
-        <v>4435.734238989859</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W31" t="n">
-        <v>4156.664574498734</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="X31" t="n">
-        <v>3918.320712358417</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="Y31" t="n">
-        <v>3918.320712358417</v>
+        <v>526.4475898552967</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2485.998028320643</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2075.873437633913</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D32" t="n">
-        <v>1671.409507726974</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E32" t="n">
-        <v>1257.069292243871</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F32" t="n">
-        <v>836.0388801975582</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H32" t="n">
         <v>179.5954603735497</v>
@@ -6713,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6737,13 +6739,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3697.79927886809</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3297.155881037042</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2896.219207985132</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C33" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D33" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E33" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H33" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>3071.501944945938</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>3914.479025640505</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N33" t="n">
-        <v>3914.479025640505</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O33" t="n">
-        <v>4100.47899204261</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S33" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T33" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U33" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V33" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W33" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X33" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y33" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>735.6434849807119</v>
+        <v>3468.510486237982</v>
       </c>
       <c r="C34" t="n">
-        <v>735.6434849807119</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="D34" t="n">
-        <v>735.6434849807119</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="E34" t="n">
-        <v>574.7326698490315</v>
+        <v>3297.417113799698</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1015439596227</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G34" t="n">
-        <v>242.8511528851661</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J34" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K34" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L34" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M34" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N34" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O34" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P34" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S34" t="n">
-        <v>1436.250826191383</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.250826191383</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U34" t="n">
-        <v>1153.452678737507</v>
+        <v>3880.945891243261</v>
       </c>
       <c r="V34" t="n">
-        <v>1153.452678737507</v>
+        <v>3880.945891243261</v>
       </c>
       <c r="W34" t="n">
-        <v>874.3830142463817</v>
+        <v>3880.945891243261</v>
       </c>
       <c r="X34" t="n">
-        <v>735.6434849807119</v>
+        <v>3880.945891243261</v>
       </c>
       <c r="Y34" t="n">
-        <v>735.6434849807119</v>
+        <v>3656.210192632026</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1313.572457336103</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E35" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6935,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -7017,25 +7019,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>844.5103911440685</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M36" t="n">
-        <v>844.5103911440685</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N36" t="n">
-        <v>844.5103911440685</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O36" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>425.1252146544881</v>
+        <v>3629.829649468958</v>
       </c>
       <c r="C37" t="n">
-        <v>425.1252146544881</v>
+        <v>3629.829649468958</v>
       </c>
       <c r="D37" t="n">
-        <v>425.1252146544881</v>
+        <v>3629.829649468958</v>
       </c>
       <c r="E37" t="n">
-        <v>425.1252146544881</v>
+        <v>3629.829649468958</v>
       </c>
       <c r="F37" t="n">
-        <v>260.4940887650794</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J37" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K37" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L37" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M37" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N37" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O37" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P37" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q37" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R37" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S37" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U37" t="n">
-        <v>1339.844446857597</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V37" t="n">
-        <v>1065.958701797119</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="W37" t="n">
-        <v>786.8890373059935</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="X37" t="n">
-        <v>548.5451751656769</v>
+        <v>3629.829649468958</v>
       </c>
       <c r="Y37" t="n">
-        <v>425.1252146544881</v>
+        <v>3629.829649468958</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>873.3089913790386</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>464.5807072718708</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>153.6722098995888</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>947.1447271725442</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>947.1447271725442</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1578.027001052593</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O39" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3456.911758476788</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="C40" t="n">
-        <v>3456.911758476788</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="D40" t="n">
-        <v>3297.417113799698</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="E40" t="n">
-        <v>3297.417113799698</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F40" t="n">
-        <v>3132.785987910289</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G40" t="n">
-        <v>3132.785987910289</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H40" t="n">
-        <v>3132.785987910289</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I40" t="n">
         <v>3132.785987910289</v>
@@ -7357,25 +7359,25 @@
         <v>4576.912166206539</v>
       </c>
       <c r="S40" t="n">
-        <v>4576.912166206539</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T40" t="n">
-        <v>4576.912166206539</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U40" t="n">
-        <v>4435.910736562753</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V40" t="n">
-        <v>4162.024991502275</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="W40" t="n">
-        <v>3882.955327011149</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="X40" t="n">
-        <v>3644.611464870833</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="Y40" t="n">
-        <v>3644.611464870833</v>
+        <v>3730.621005964372</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1947.09686399571</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>1536.97227330898</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1389.037915967048</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>974.6977004839443</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>553.6672884376319</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>144.9390043304641</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9390043304641</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>526.9617039639522</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
-        <v>1239.55310377619</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1239.55310377619</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>1964.570219164463</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2608.201075581568</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>2707.155598323719</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>2707.155598323719</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>2357.3180436602</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W41" t="n">
-        <v>2357.3180436602</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X41" t="n">
-        <v>2357.3180436602</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2357.3180436602</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4000992101705</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>251.4000992101705</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>976.4172145984433</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O42" t="n">
-        <v>1680.374305144338</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2322.04664498269</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C43" t="n">
-        <v>2150.953272544406</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D43" t="n">
-        <v>1991.458627867316</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E43" t="n">
-        <v>1830.547812735636</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F43" t="n">
-        <v>1665.916686846227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>1665.916686846227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>1516.309231651684</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>1399.96318575601</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>1414.045735161221</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>1568.598062883459</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>1828.495163163519</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>2117.759219604013</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>2398.598001998263</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>2658.158612324737</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>2863.834052574349</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>2929.36208237686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>2689.813343353562</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U43" t="n">
-        <v>2407.015195899686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V43" t="n">
-        <v>2407.015195899686</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>2407.015195899686</v>
+        <v>1343.572929820347</v>
       </c>
       <c r="X43" t="n">
-        <v>2407.015195899686</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y43" t="n">
-        <v>2407.015195899686</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1983.216429675424</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C44" t="n">
-        <v>1573.091838988694</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>1573.091838988694</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>1199.254435173299</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>778.224023126987</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>369.4957390198192</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>58.5872416475372</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>123.1055953709714</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>835.6969951832094</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1560.714110571482</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>2285.731225959755</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2929.36208237686</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2929.36208237686</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>2794.081007170961</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>2794.081007170961</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V44" t="n">
-        <v>2794.081007170961</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W44" t="n">
-        <v>2794.081007170961</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X44" t="n">
-        <v>2393.437609339914</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y44" t="n">
-        <v>2393.437609339914</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>58.5872416475372</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>719.6754135668255</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M45" t="n">
-        <v>1444.692528955098</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N45" t="n">
-        <v>1444.692528955098</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="O45" t="n">
-        <v>2105.076437498037</v>
+        <v>1422.708046067539</v>
       </c>
       <c r="P45" t="n">
-        <v>2105.076437498037</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>870.6642309213194</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C46" t="n">
-        <v>699.5708584830359</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D46" t="n">
-        <v>540.0762138059458</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E46" t="n">
-        <v>540.0762138059458</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F46" t="n">
-        <v>375.4450879165371</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G46" t="n">
-        <v>208.1946968420806</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>58.5872416475372</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>58.5872416475372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>72.66979105274773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>227.2221187749857</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>487.1192190550462</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>776.3832754955395</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1057.22205788979</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1316.782668216264</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1522.458108465876</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1587.986138268387</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T46" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U46" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V46" t="n">
-        <v>1502.713419943787</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W46" t="n">
-        <v>1223.643755452661</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="X46" t="n">
-        <v>985.2998933123447</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="Y46" t="n">
-        <v>985.2998933123447</v>
+        <v>1312.634177375637</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M2" t="n">
-        <v>825.6307450512605</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>551.7390066083942</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>785.533913987965</v>
+        <v>359.4030239885896</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>333.8647521874331</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>352.1452494636771</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>553.1935596277625</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>551.131026993654</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>554.1634861730673</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7318453389136</v>
+        <v>531.8357165796282</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>810.2416349087134</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8535,16 +8537,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>724.6187368120929</v>
+        <v>531.174398074769</v>
       </c>
       <c r="N9" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>521.2755983872071</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O12" t="n">
-        <v>660.231241700964</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8927,25 +8929,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>588.9276542736088</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9006,22 +9008,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
-        <v>381.4963798086763</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9170,7 +9172,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9243,22 +9245,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>214.6393123182364</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9480,22 +9482,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>841.9067396726143</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9714,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>207.048570588712</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9951,25 +9953,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>650.0674079052355</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10191,10 +10193,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>598.4189524525904</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10203,10 +10205,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>536.3885161299984</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10428,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>245.6302329415204</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10665,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>354.5594098594824</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10899,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>690.4482154948091</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
-        <v>562.2419071645454</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
@@ -11145,16 +11147,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P42" t="n">
-        <v>483.2516878853286</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,25 +11378,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>789.9048043326325</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>724.8059320736758</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>425.1489105478544</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23258,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>49.19646844041381</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>266.5710317351337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>86.48675028975184</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>379.956115809049</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23546,10 +23548,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>29.51425999232325</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23662,7 +23664,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>134.9699070214185</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -23732,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>356.9958808389731</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>45.55681957367921</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>14.89066570342132</v>
       </c>
       <c r="E19" t="n">
-        <v>101.3084681490161</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -23944,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>45.5568195736792</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24127,13 +24129,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>42.11156140762814</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>109.0853370472083</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>36.36515802722613</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>93.78622388813046</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
         <v>115.1825854367171</v>
@@ -24412,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24449,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>222.4997066824609</v>
+        <v>96.14494677818607</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24494,13 +24496,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.2884249393402</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -24613,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>155.6709200800481</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24737,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>96.14494677818658</v>
       </c>
       <c r="X29" t="n">
-        <v>134.6847134965117</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -24847,7 +24849,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>12.96711254719753</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>248.2640602371182</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24929,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>62.56142803888685</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
         <v>115.1825854367171</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>12.64465583764689</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>98.60828954590045</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25157,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>25.66401796922128</v>
+        <v>32.28731256679833</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25321,16 +25323,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.78344293045997</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>100.302580719046</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25400,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>25.66401796922125</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>140.3787506319892</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>134.9699070214199</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>253.9642768393568</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>356.9958808389729</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>101.7038439222777</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>56.01419322081099</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>40.09778355103145</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>308.5558614412302</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>72.33340356298888</v>
+        <v>57.0666462400651</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>755598.2884846195</v>
+        <v>752284.493669854</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>755598.2884846195</v>
+        <v>752284.493669854</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>755598.2884846195</v>
+        <v>761001.8167215321</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523786.9334612093</v>
+        <v>681163.9935677993</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523786.9334612092</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681163.9935677995</v>
+        <v>681163.9935677993</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>681163.9935677993</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>681163.9935677993</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>681163.9935677993</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681163.9935677996</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>681163.9935677996</v>
+        <v>681163.9935677993</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>523786.9334612089</v>
+        <v>681163.9935677996</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523786.9334612093</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811425</v>
+        <v>407205.9825811424</v>
       </c>
       <c r="C2" t="n">
-        <v>407205.9825811424</v>
+        <v>407205.9825811423</v>
       </c>
       <c r="D2" t="n">
         <v>407205.9825811425</v>
       </c>
       <c r="E2" t="n">
-        <v>278421.8964570257</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="F2" t="n">
-        <v>278421.8964570257</v>
+        <v>362060.8344188675</v>
       </c>
       <c r="G2" t="n">
         <v>362060.8344188675</v>
@@ -26332,28 +26334,28 @@
         <v>362060.8344188675</v>
       </c>
       <c r="I2" t="n">
+        <v>362060.8344188673</v>
+      </c>
+      <c r="J2" t="n">
         <v>362060.8344188675</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>362060.8344188674</v>
       </c>
-      <c r="K2" t="n">
-        <v>362060.8344188673</v>
-      </c>
       <c r="L2" t="n">
-        <v>362060.8344188673</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="M2" t="n">
-        <v>362060.8344188673</v>
+        <v>362060.8344188675</v>
       </c>
       <c r="N2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="O2" t="n">
-        <v>278421.8964570255</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="P2" t="n">
-        <v>278421.8964570257</v>
+        <v>362060.8344188675</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>26968.9541809342</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>139999.3108647528</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>22509.2647740474</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140769.9845623024</v>
+        <v>174432.0962319951</v>
       </c>
       <c r="C4" t="n">
-        <v>140769.9845623025</v>
+        <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>140769.9845623025</v>
+        <v>85879.99254746168</v>
       </c>
       <c r="E4" t="n">
-        <v>23160.83861544975</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="F4" t="n">
-        <v>23160.83861544975</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="G4" t="n">
         <v>30192.61954398331</v>
@@ -26436,28 +26438,28 @@
         <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="J4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="K4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="L4" t="n">
-        <v>30192.61954398331</v>
+        <v>30192.61954398332</v>
       </c>
       <c r="M4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="N4" t="n">
+        <v>30192.61954398331</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30192.61954398331</v>
+      </c>
+      <c r="P4" t="n">
         <v>30192.61954398332</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23160.83861544975</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23160.83861544975</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>99001.07135520027</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-57142.05791638338</v>
+        <v>-7550.688622464309</v>
       </c>
       <c r="C6" t="n">
-        <v>188282.0943667117</v>
+        <v>167404.8212706497</v>
       </c>
       <c r="D6" t="n">
-        <v>188282.0943667118</v>
+        <v>50497.449768412</v>
       </c>
       <c r="E6" t="n">
-        <v>210734.7541894476</v>
+        <v>234034.0504490766</v>
       </c>
       <c r="F6" t="n">
-        <v>210734.7541894476</v>
+        <v>261003.0046300109</v>
       </c>
       <c r="G6" t="n">
-        <v>142267.8201978969</v>
+        <v>261003.0046300109</v>
       </c>
       <c r="H6" t="n">
         <v>261003.0046300109</v>
       </c>
       <c r="I6" t="n">
-        <v>261003.0046300109</v>
+        <v>261003.0046300107</v>
       </c>
       <c r="J6" t="n">
-        <v>69390.50145965793</v>
+        <v>124408.2038241159</v>
       </c>
       <c r="K6" t="n">
         <v>261003.0046300107</v>
       </c>
       <c r="L6" t="n">
-        <v>261003.0046300107</v>
+        <v>121003.693765258</v>
       </c>
       <c r="M6" t="n">
-        <v>261003.0046300107</v>
+        <v>238493.7398559634</v>
       </c>
       <c r="N6" t="n">
         <v>261003.0046300108</v>
       </c>
       <c r="O6" t="n">
-        <v>210734.7541894475</v>
+        <v>261003.0046300108</v>
       </c>
       <c r="P6" t="n">
-        <v>210734.7541894476</v>
+        <v>261003.0046300109</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1075.22156834211</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>90.32465279067513</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067512</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>553.1579979720842</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>90.32465279067513</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>329.8025564551829</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>168.4760317832588</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>113.158057514143</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>115.4622864852429</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>103.6834669398975</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>230.8142810169307</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>30.92593179381498</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>107.1145691964304</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>363.7809400415302</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>99.12522289949018</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -28029,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300484</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.08789979131609</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>458.5492309826111</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>732.340520594215</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>277.1721336825944</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>263.00885979046</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>493.5667432552366</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>500.9700927793173</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>543.5954556656965</v>
+        <v>442.699326906411</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>716.9514104516679</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.0544530736755</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="N9" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>432.13920871399</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O12" t="n">
-        <v>602.479762700964</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35647,25 +35649,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>499.7912646003917</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35726,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
-        <v>328.3029864149263</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35881,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35890,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>156.8878333182364</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>788.7133462788644</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>151.2227878040966</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>593.9528840943865</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>542.3044286417413</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,10 +36925,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>187.8787539415204</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>298.4448860486334</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>637.2548221010592</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
-        <v>473.1055174913283</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37865,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P42" t="n">
-        <v>428.9920528825249</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>732.340520594215</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>667.0544530736757</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>370.8892755450506</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1528252.40320309</v>
+        <v>1526939.75774751</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.81102974</v>
+        <v>5301029.811029746</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789206</v>
+        <v>2166967.111789205</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8089703.144527479</v>
+        <v>8089703.144527478</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>80.39425687308933</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>254.0209465050311</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>164.5078794940942</v>
+        <v>112.1027016460443</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -898,13 +898,13 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>302.3398778399651</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>381.8047781162001</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>146.6801671989609</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>134.651955369897</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>274.7194023997483</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>247.2139562173939</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059086</v>
+        <v>186.6550518816532</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>354.5721285655368</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1384,13 +1384,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>177.0054434986741</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="U14" t="n">
-        <v>165.9184445944652</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>78.05327981805566</v>
       </c>
       <c r="F16" t="n">
-        <v>28.01490760909618</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>49.02746394088942</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
@@ -1906,7 +1906,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>156.8550814710507</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2004,16 +2004,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>143.0090325268978</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>42.73035082409601</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>165.9184445944652</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>115.7881368226909</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>20.88501606851465</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>219.2279701699388</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2538,13 +2538,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>186.1448555965607</v>
       </c>
       <c r="X25" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>314.0518665500862</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944652</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>30.59206974369904</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>124.299245899289</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>283.7777510779965</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>166.7165542762732</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -3003,16 +3003,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>28.01490760909618</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>269.9562877695847</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3189,25 +3189,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>267.3255101416902</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>26.00676988142192</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,10 +3271,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
         <v>416.8201079258493</v>
@@ -3319,13 +3319,13 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>123.8394724344234</v>
       </c>
       <c r="W35" t="n">
         <v>379.9226978561831</v>
@@ -3426,19 +3426,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>63.20137170005468</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>251.9877062856152</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3517,7 +3517,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>404.6410012660961</v>
+        <v>181.5733848809636</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
@@ -3720,10 +3720,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>136.1769805884533</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>214.0246150492577</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>183.0513514827122</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>39.93142548241784</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>179.9462302981024</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3985,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4039,13 +4039,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>71.36683641495289</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>364.6399937545928</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>128.7560630900389</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>12.68843489334748</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>555.1974103293671</v>
+        <v>1603.280207151329</v>
       </c>
       <c r="C2" t="n">
-        <v>549.1132236830413</v>
+        <v>1597.196020505003</v>
       </c>
       <c r="D2" t="n">
-        <v>144.6492937761018</v>
+        <v>1192.732090598064</v>
       </c>
       <c r="E2" t="n">
-        <v>63.44297370227418</v>
+        <v>778.3918751149603</v>
       </c>
       <c r="F2" t="n">
-        <v>46.45296569636579</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H2" t="n">
         <v>41.76508562960205</v>
@@ -4333,22 +4333,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>537.7254774811266</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4357,25 +4357,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1952.973206274203</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>1695.912714533713</v>
+        <v>1609.460982775415</v>
       </c>
       <c r="V2" t="n">
-        <v>1346.075159870194</v>
+        <v>1609.460982775415</v>
       </c>
       <c r="W2" t="n">
-        <v>962.3148590053625</v>
+        <v>1609.460982775415</v>
       </c>
       <c r="X2" t="n">
-        <v>962.3148590053625</v>
+        <v>1609.460982775415</v>
       </c>
       <c r="Y2" t="n">
-        <v>561.3781859534525</v>
+        <v>1609.460982775415</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161367</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650825</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844749</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768029</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593075</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
         <v>133.260889973646</v>
@@ -4406,31 +4406,31 @@
         <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>497.571341894901</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585605</v>
+        <v>497.571341894901</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524886</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N3" t="n">
-        <v>1571.411346813777</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
-        <v>1571.411346813777</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4454,7 +4454,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517234</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.259730306692</v>
+        <v>533.263917876656</v>
       </c>
       <c r="C4" t="n">
-        <v>201.259730306692</v>
+        <v>362.1705454383725</v>
       </c>
       <c r="D4" t="n">
-        <v>41.76508562960205</v>
+        <v>202.6759007612826</v>
       </c>
       <c r="E4" t="n">
         <v>41.76508562960205</v>
@@ -4521,19 +4521,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1404.994407003892</v>
+        <v>1457.92893008273</v>
       </c>
       <c r="V4" t="n">
-        <v>1131.108661943414</v>
+        <v>1184.043185022252</v>
       </c>
       <c r="W4" t="n">
-        <v>852.0389974522884</v>
+        <v>1184.043185022252</v>
       </c>
       <c r="X4" t="n">
-        <v>613.6951353119717</v>
+        <v>945.6993228819357</v>
       </c>
       <c r="Y4" t="n">
-        <v>388.9594367007364</v>
+        <v>720.9636242707004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2082.073505856017</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C5" t="n">
-        <v>1776.679689856052</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D5" t="n">
-        <v>1372.215759949112</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
@@ -4612,7 +4612,7 @@
         <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4649,19 +4649,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959273</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.9071198972739</v>
+        <v>521.8083876429229</v>
       </c>
       <c r="C7" t="n">
-        <v>662.8137474589904</v>
+        <v>521.8083876429229</v>
       </c>
       <c r="D7" t="n">
-        <v>503.3191027819004</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E7" t="n">
-        <v>342.4082876502199</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F7" t="n">
-        <v>177.7771617608112</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1246.342524902554</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U7" t="n">
-        <v>1246.342524902554</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V7" t="n">
-        <v>1246.342524902554</v>
+        <v>1025.613750745284</v>
       </c>
       <c r="W7" t="n">
-        <v>1246.342524902554</v>
+        <v>746.5440862541582</v>
       </c>
       <c r="X7" t="n">
-        <v>1246.342524902554</v>
+        <v>746.5440862541582</v>
       </c>
       <c r="Y7" t="n">
-        <v>1021.606826291318</v>
+        <v>521.8083876429229</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2455.613655069904</v>
+        <v>2098.42667555215</v>
       </c>
       <c r="C8" t="n">
-        <v>2045.489064383174</v>
+        <v>1820.932329693819</v>
       </c>
       <c r="D8" t="n">
-        <v>1641.025134476234</v>
+        <v>1416.468399786879</v>
       </c>
       <c r="E8" t="n">
-        <v>1226.684918993131</v>
+        <v>1002.128184303776</v>
       </c>
       <c r="F8" t="n">
-        <v>805.6545069468186</v>
+        <v>581.0977722574635</v>
       </c>
       <c r="G8" t="n">
-        <v>396.9262228396508</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="H8" t="n">
-        <v>86.01772546736878</v>
+        <v>172.3694881502956</v>
       </c>
       <c r="I8" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J8" t="n">
-        <v>86.01772546736878</v>
+        <v>340.2031969351231</v>
       </c>
       <c r="K8" t="n">
-        <v>524.2900591047157</v>
+        <v>524.2900591047148</v>
       </c>
       <c r="L8" t="n">
-        <v>1236.881458916954</v>
+        <v>1236.881458916953</v>
       </c>
       <c r="M8" t="n">
-        <v>2013.200049908708</v>
+        <v>2013.200049908707</v>
       </c>
       <c r="N8" t="n">
-        <v>2766.381066547326</v>
+        <v>2766.381066547325</v>
       </c>
       <c r="O8" t="n">
-        <v>3410.011922964431</v>
+        <v>3410.01192296443</v>
       </c>
       <c r="P8" t="n">
-        <v>3939.168620883582</v>
+        <v>3939.168620883581</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678874</v>
+        <v>4260.329627678873</v>
       </c>
       <c r="R8" t="n">
-        <v>4300.886273368439</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="S8" t="n">
-        <v>4300.886273368439</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="T8" t="n">
-        <v>4300.886273368439</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="U8" t="n">
-        <v>4300.886273368439</v>
+        <v>4043.825781627948</v>
       </c>
       <c r="V8" t="n">
-        <v>4051.175206482183</v>
+        <v>3693.988226964429</v>
       </c>
       <c r="W8" t="n">
-        <v>3667.414905617351</v>
+        <v>3310.227926099597</v>
       </c>
       <c r="X8" t="n">
-        <v>3266.771507786304</v>
+        <v>2909.58452826855</v>
       </c>
       <c r="Y8" t="n">
-        <v>2865.834834734394</v>
+        <v>2508.64785521664</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>764.8485673539033</v>
+        <v>764.848567353903</v>
       </c>
       <c r="C9" t="n">
-        <v>630.8534961028489</v>
+        <v>630.8534961028488</v>
       </c>
       <c r="D9" t="n">
-        <v>513.9563383222413</v>
+        <v>513.9563383222412</v>
       </c>
       <c r="E9" t="n">
-        <v>393.4635223145693</v>
+        <v>393.4635223145692</v>
       </c>
       <c r="F9" t="n">
-        <v>284.5036424970739</v>
+        <v>284.5036424970738</v>
       </c>
       <c r="G9" t="n">
-        <v>177.5135298114126</v>
+        <v>177.5135298114125</v>
       </c>
       <c r="H9" t="n">
         <v>106.7663168471286</v>
       </c>
       <c r="I9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="L9" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="M9" t="n">
-        <v>554.8917386603569</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="N9" t="n">
-        <v>1428.549830771975</v>
+        <v>516.9994735994608</v>
       </c>
       <c r="O9" t="n">
-        <v>2132.506921317869</v>
+        <v>1220.956564145355</v>
       </c>
       <c r="P9" t="n">
-        <v>2132.506921317869</v>
+        <v>1782.662456633885</v>
       </c>
       <c r="Q9" t="n">
         <v>2132.506921317869</v>
@@ -4910,16 +4910,16 @@
         <v>2132.506921317869</v>
       </c>
       <c r="S9" t="n">
-        <v>2024.516911432178</v>
+        <v>2024.516911432177</v>
       </c>
       <c r="T9" t="n">
         <v>1865.175047619186</v>
       </c>
       <c r="U9" t="n">
-        <v>1667.824236757405</v>
+        <v>1667.824236757404</v>
       </c>
       <c r="V9" t="n">
-        <v>1454.112709750439</v>
+        <v>1454.112709750438</v>
       </c>
       <c r="W9" t="n">
         <v>1240.879541486767</v>
@@ -4928,7 +4928,7 @@
         <v>1064.55355962566</v>
       </c>
       <c r="Y9" t="n">
-        <v>905.1515999894899</v>
+        <v>905.1515999894897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.01772546736878</v>
+        <v>1014.440760636825</v>
       </c>
       <c r="C10" t="n">
-        <v>86.01772546736878</v>
+        <v>843.3473881985412</v>
       </c>
       <c r="D10" t="n">
-        <v>86.01772546736878</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="E10" t="n">
-        <v>86.01772546736878</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>86.01772546736878</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>86.01772546736878</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
-        <v>86.01772546736878</v>
+        <v>202.3637713630426</v>
       </c>
       <c r="I10" t="n">
-        <v>86.01772546736878</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="J10" t="n">
         <v>100.1002748725793</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1343.752135643529</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1104.203396620231</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>821.4052491663549</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>547.5195041058769</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>268.4498396147512</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>86.01772546736878</v>
+        <v>1426.876165642104</v>
       </c>
       <c r="Y10" t="n">
-        <v>86.01772546736878</v>
+        <v>1202.140467030869</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455811</v>
+        <v>2502.881125286859</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769081</v>
+        <v>2092.756534600129</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
@@ -5083,10 +5083,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172211</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.102304951348</v>
       </c>
     </row>
     <row r="12">
@@ -5132,7 +5132,7 @@
         <v>754.331869609911</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T13" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U13" t="n">
-        <v>1622.642594311473</v>
+        <v>1017.908709896697</v>
       </c>
       <c r="V13" t="n">
-        <v>1622.642594311473</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="W13" t="n">
-        <v>1622.642594311473</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X13" t="n">
-        <v>1595.012952997039</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y13" t="n">
-        <v>1370.277254385804</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="14">
@@ -5308,7 +5308,7 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T14" t="n">
-        <v>4662.18488453114</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U14" t="n">
         <v>4494.590496051882</v>
@@ -5360,16 +5360,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O15" t="n">
         <v>2139.732893541123</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>554.7454763291312</v>
+        <v>502.6734115919111</v>
       </c>
       <c r="C16" t="n">
-        <v>554.7454763291312</v>
+        <v>331.5800391536276</v>
       </c>
       <c r="D16" t="n">
-        <v>554.7454763291312</v>
+        <v>172.0853944765376</v>
       </c>
       <c r="E16" t="n">
-        <v>554.7454763291312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F16" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G16" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H16" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="W16" t="n">
-        <v>554.7454763291312</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="X16" t="n">
-        <v>554.7454763291312</v>
+        <v>915.1088165971908</v>
       </c>
       <c r="Y16" t="n">
-        <v>554.7454763291312</v>
+        <v>690.3731179859554</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
         <v>2052.715036606428</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>408.7906383378939</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="C19" t="n">
-        <v>237.6972658996104</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F19" t="n">
         <v>93.2436976906228</v>
@@ -5700,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1383.093855288175</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U19" t="n">
-        <v>1100.295707834299</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.295707834299</v>
+        <v>1110.290708208117</v>
       </c>
       <c r="W19" t="n">
-        <v>821.2260433431736</v>
+        <v>831.2210437169917</v>
       </c>
       <c r="X19" t="n">
-        <v>821.2260433431736</v>
+        <v>831.2210437169917</v>
       </c>
       <c r="Y19" t="n">
-        <v>596.4903447319383</v>
+        <v>606.4853451057564</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4494.590496051882</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>537.5348450866911</v>
       </c>
       <c r="L21" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>1914.095216421104</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>548.5451751656769</v>
+        <v>851.989530876386</v>
       </c>
       <c r="C22" t="n">
-        <v>377.4518027273934</v>
+        <v>851.989530876386</v>
       </c>
       <c r="D22" t="n">
-        <v>260.4940887650794</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E22" t="n">
-        <v>260.4940887650794</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U22" t="n">
-        <v>1339.844446857597</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.958701797119</v>
+        <v>1090.333393016703</v>
       </c>
       <c r="W22" t="n">
-        <v>786.8890373059935</v>
+        <v>1090.333393016703</v>
       </c>
       <c r="X22" t="n">
-        <v>548.5451751656769</v>
+        <v>851.989530876386</v>
       </c>
       <c r="Y22" t="n">
-        <v>548.5451751656769</v>
+        <v>851.989530876386</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2139.066799289355</v>
+        <v>2459.725286714852</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>2049.600696028122</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1645.136766121183</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>1230.796550638079</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>809.7661385917668</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>401.0378544845989</v>
       </c>
       <c r="H23" t="n">
         <v>179.5954603735497</v>
@@ -5989,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4055.286838127131</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3671.526537262299</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3270.883139431251</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2869.946466379341</v>
       </c>
     </row>
     <row r="24">
@@ -6083,13 +6083,13 @@
         <v>1402.950983437843</v>
       </c>
       <c r="O24" t="n">
-        <v>1578.027001052593</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.2436976906228</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="C25" t="n">
-        <v>93.2436976906228</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D25" t="n">
-        <v>93.2436976906228</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V25" t="n">
-        <v>554.7454763291312</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W25" t="n">
-        <v>275.6758118380055</v>
+        <v>638.3848561106286</v>
       </c>
       <c r="X25" t="n">
-        <v>93.2436976906228</v>
+        <v>638.3848561106286</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.2436976906228</v>
+        <v>413.6491574993933</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2452.075282119331</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>2041.950691432601</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1637.486761525662</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
         <v>1320.262653899312</v>
@@ -6223,13 +6223,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V26" t="n">
-        <v>4047.636833531609</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W26" t="n">
-        <v>3663.876532666778</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>3263.23313483573</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2862.29646178382</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.4391700005397</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="C28" t="n">
-        <v>402.3457975622561</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="D28" t="n">
-        <v>242.8511528851661</v>
+        <v>441.0026245088137</v>
       </c>
       <c r="E28" t="n">
-        <v>242.8511528851661</v>
+        <v>441.0026245088137</v>
       </c>
       <c r="F28" t="n">
-        <v>242.8511528851661</v>
+        <v>441.0026245088137</v>
       </c>
       <c r="G28" t="n">
-        <v>242.8511528851661</v>
+        <v>273.7522334343571</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>124.1447782398137</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U28" t="n">
-        <v>985.8745750058193</v>
+        <v>1153.452678737507</v>
       </c>
       <c r="V28" t="n">
-        <v>985.8745750058193</v>
+        <v>879.5669336770293</v>
       </c>
       <c r="W28" t="n">
-        <v>985.8745750058193</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="X28" t="n">
-        <v>985.8745750058193</v>
+        <v>600.4972691859036</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.138876394584</v>
+        <v>600.4972691859036</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
         <v>347.4291691583771</v>
@@ -6499,16 +6499,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4047.636833531609</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N30" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>526.4475898552967</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C31" t="n">
-        <v>526.4475898552967</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D31" t="n">
-        <v>526.4475898552967</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E31" t="n">
-        <v>526.4475898552967</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F31" t="n">
         <v>526.4475898552967</v>
@@ -6651,22 +6651,22 @@
         <v>1350.978107866783</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V31" t="n">
-        <v>554.7454763291312</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="W31" t="n">
-        <v>526.4475898552967</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="X31" t="n">
-        <v>526.4475898552967</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.4475898552967</v>
+        <v>1350.978107866783</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G32" t="n">
-        <v>179.5954603735497</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q33" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3468.510486237982</v>
+        <v>851.989530876386</v>
       </c>
       <c r="C34" t="n">
-        <v>3297.417113799698</v>
+        <v>851.989530876386</v>
       </c>
       <c r="D34" t="n">
-        <v>3297.417113799698</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E34" t="n">
-        <v>3297.417113799698</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>3880.945891243261</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V34" t="n">
-        <v>3880.945891243261</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W34" t="n">
-        <v>3880.945891243261</v>
+        <v>1039.68923727043</v>
       </c>
       <c r="X34" t="n">
-        <v>3880.945891243261</v>
+        <v>1039.68923727043</v>
       </c>
       <c r="Y34" t="n">
-        <v>3656.210192632026</v>
+        <v>1039.68923727043</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.262653899312</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
         <v>1320.262653899312</v>
@@ -6937,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7022,19 +7022,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3629.829649468958</v>
+        <v>850.6960310278942</v>
       </c>
       <c r="C37" t="n">
-        <v>3629.829649468958</v>
+        <v>679.6026585896107</v>
       </c>
       <c r="D37" t="n">
-        <v>3629.829649468958</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E37" t="n">
-        <v>3629.829649468958</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F37" t="n">
-        <v>3565.989880074963</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G37" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K37" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L37" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M37" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N37" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O37" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P37" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q37" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>4150.971659063151</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U37" t="n">
-        <v>3868.173511609275</v>
+        <v>1368.109557659336</v>
       </c>
       <c r="V37" t="n">
-        <v>3868.173511609275</v>
+        <v>1368.109557659336</v>
       </c>
       <c r="W37" t="n">
-        <v>3868.173511609275</v>
+        <v>1089.039893168211</v>
       </c>
       <c r="X37" t="n">
-        <v>3629.829649468958</v>
+        <v>850.6960310278942</v>
       </c>
       <c r="Y37" t="n">
-        <v>3629.829649468958</v>
+        <v>850.6960310278942</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2462.839627293158</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
-        <v>2052.715036606428</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D38" t="n">
-        <v>1648.251106699488</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E38" t="n">
-        <v>1233.910891216385</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F38" t="n">
-        <v>812.8804791700727</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G38" t="n">
         <v>404.1521950629048</v>
@@ -7174,7 +7174,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
         <v>885.5886702674165</v>
@@ -7204,22 +7204,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4408.238733368956</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>4058.401178705436</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3674.640877840605</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>3273.997480009557</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2873.060806957647</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7256,19 +7256,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N39" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3730.621005964372</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C40" t="n">
-        <v>3730.621005964372</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D40" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K40" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L40" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M40" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N40" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O40" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P40" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>4150.971659063151</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>3868.173511609275</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V40" t="n">
-        <v>3730.621005964372</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W40" t="n">
-        <v>3730.621005964372</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="X40" t="n">
-        <v>3730.621005964372</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="Y40" t="n">
-        <v>3730.621005964372</v>
+        <v>423.8317148059963</v>
       </c>
     </row>
     <row r="41">
@@ -7411,10 +7411,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N42" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.3736558270855</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C43" t="n">
-        <v>578.280283388802</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D43" t="n">
-        <v>418.7856387117121</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8748235800315</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7608,13 +7608,13 @@
         <v>1622.642594311473</v>
       </c>
       <c r="W43" t="n">
-        <v>1343.572929820347</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X43" t="n">
-        <v>1161.809060832365</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y43" t="n">
-        <v>937.0733622211299</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2134.851174492981</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1724.726583806251</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="E44" t="n">
         <v>1320.262653899312</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4182.917908737509</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3833.080354073989</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2959.412569640574</v>
+        <v>2545.072354157471</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>549.0499539559215</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M45" t="n">
-        <v>549.0499539559215</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N45" t="n">
-        <v>1422.708046067539</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O45" t="n">
-        <v>1422.708046067539</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>1609.825993409102</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.369875986873</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.369875986873</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="V46" t="n">
-        <v>1537.369875986873</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="W46" t="n">
-        <v>1537.369875986873</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="X46" t="n">
-        <v>1537.369875986873</v>
+        <v>1370.277254385804</v>
       </c>
       <c r="Y46" t="n">
-        <v>1312.634177375637</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>596.4554908421626</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>270.21439869122</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,22 +8057,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>359.4030239885896</v>
+        <v>63.89502594283658</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>615.3537948270711</v>
@@ -8230,16 +8230,16 @@
         <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>553.1935596277625</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>535.5249675786654</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>554.1634861730673</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>98.31121191537974</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>531.8357165796282</v>
+        <v>275.0827150970472</v>
       </c>
       <c r="L8" t="n">
         <v>815.2746908024792</v>
@@ -8540,19 +8540,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>531.174398074769</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>488.5284925170752</v>
       </c>
       <c r="O9" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8698,7 +8698,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8780,10 +8780,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>741.5205988334646</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8938,7 +8938,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
@@ -9008,19 +9008,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>285.4811293141939</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>309.8442573638428</v>
       </c>
       <c r="L21" t="n">
         <v>723.8803540323523</v>
@@ -9494,16 +9494,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>282.1764805785802</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>234.5959412371211</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,25 +9956,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>71.42007065981008</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,13 +10190,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
@@ -10205,7 +10205,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>536.3885161299984</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10214,7 +10214,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,22 +10670,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>389.2085932869795</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,22 +11141,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>384.4175102257753</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>425.1489105478544</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>45.8471620423332</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>102.964722480663</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>54.06597461814459</v>
       </c>
       <c r="U14" t="n">
-        <v>88.57144222861982</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>81.24842716230806</v>
       </c>
       <c r="F16" t="n">
-        <v>134.9699070214185</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>356.9958808389731</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>223.0676163851324</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>14.89066570342132</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.577887163712</v>
@@ -23940,16 +23940,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>228.4165367857773</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>88.57144222861982</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>42.11156140762814</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>250.2618715413586</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>88.57144222862041</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>90.13411224965361</v>
       </c>
       <c r="X25" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>96.14494677818607</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>88.57144222861982</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>84.59051569301806</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>155.6709200800481</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>96.14494677818658</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>19.10615505383078</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>248.2640602371182</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>12.64465583764689</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>250.2721979647924</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>222.4997066824607</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.78344293045997</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>27.98245969372184</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>134.9699070214199</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>62.25435279695662</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>223.0676163851324</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>356.9958808389729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>56.01419322081099</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>308.5558614412302</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>32.28731256679805</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.0666462400651</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>171.8394155455414</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>681163.9935677993</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>681163.9935677993</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>681163.9935677993</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>681163.9935677995</v>
+        <v>681163.9935677996</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>681163.9935677996</v>
+        <v>681163.9935677995</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>681163.9935677995</v>
+        <v>681163.9935677993</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811424</v>
+        <v>407205.9825811425</v>
       </c>
       <c r="C2" t="n">
         <v>407205.9825811423</v>
       </c>
       <c r="D2" t="n">
-        <v>407205.9825811425</v>
+        <v>407205.9825811424</v>
       </c>
       <c r="E2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188675</v>
       </c>
       <c r="F2" t="n">
         <v>362060.8344188675</v>
       </c>
       <c r="G2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="H2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="I2" t="n">
+        <v>362060.8344188674</v>
+      </c>
+      <c r="J2" t="n">
+        <v>362060.8344188674</v>
+      </c>
+      <c r="K2" t="n">
         <v>362060.8344188673</v>
       </c>
-      <c r="J2" t="n">
-        <v>362060.8344188675</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>362060.8344188672</v>
+      </c>
+      <c r="M2" t="n">
         <v>362060.8344188674</v>
-      </c>
-      <c r="L2" t="n">
-        <v>362060.8344188674</v>
-      </c>
-      <c r="M2" t="n">
-        <v>362060.8344188675</v>
       </c>
       <c r="N2" t="n">
         <v>362060.8344188674</v>
@@ -26355,7 +26355,7 @@
         <v>362060.8344188674</v>
       </c>
       <c r="P2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>171827.4689100685</v>
       </c>
       <c r="E3" t="n">
-        <v>26968.9541809342</v>
+        <v>26968.95418093424</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>139999.3108647528</v>
+        <v>139999.3108647527</v>
       </c>
       <c r="M3" t="n">
-        <v>22509.2647740474</v>
+        <v>22509.26477404744</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>174432.0962319951</v>
       </c>
       <c r="D4" t="n">
-        <v>85879.99254746168</v>
+        <v>85879.9925474617</v>
       </c>
       <c r="E4" t="n">
         <v>30192.61954398331</v>
@@ -26438,16 +26438,16 @@
         <v>30192.61954398331</v>
       </c>
       <c r="I4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="J4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="K4" t="n">
         <v>30192.61954398331</v>
       </c>
       <c r="L4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="M4" t="n">
         <v>30192.61954398331</v>
@@ -26459,7 +26459,7 @@
         <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
-        <v>30192.61954398332</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>99001.07135520027</v>
+        <v>99001.07135520026</v>
       </c>
       <c r="E5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7550.688622464309</v>
+        <v>-7550.688622464288</v>
       </c>
       <c r="C6" t="n">
         <v>167404.8212706497</v>
       </c>
       <c r="D6" t="n">
-        <v>50497.449768412</v>
+        <v>50497.44976841196</v>
       </c>
       <c r="E6" t="n">
-        <v>234034.0504490766</v>
+        <v>233853.4698564275</v>
       </c>
       <c r="F6" t="n">
-        <v>261003.0046300109</v>
+        <v>260822.4240373618</v>
       </c>
       <c r="G6" t="n">
-        <v>261003.0046300109</v>
+        <v>260822.4240373617</v>
       </c>
       <c r="H6" t="n">
-        <v>261003.0046300109</v>
+        <v>260822.4240373617</v>
       </c>
       <c r="I6" t="n">
-        <v>261003.0046300107</v>
+        <v>260822.4240373617</v>
       </c>
       <c r="J6" t="n">
-        <v>124408.2038241159</v>
+        <v>124227.6232314667</v>
       </c>
       <c r="K6" t="n">
-        <v>261003.0046300107</v>
+        <v>260822.4240373616</v>
       </c>
       <c r="L6" t="n">
-        <v>121003.693765258</v>
+        <v>120823.1131726088</v>
       </c>
       <c r="M6" t="n">
-        <v>238493.7398559634</v>
+        <v>238313.1592633142</v>
       </c>
       <c r="N6" t="n">
-        <v>261003.0046300108</v>
+        <v>260822.4240373617</v>
       </c>
       <c r="O6" t="n">
-        <v>261003.0046300108</v>
+        <v>260822.4240373617</v>
       </c>
       <c r="P6" t="n">
-        <v>261003.0046300109</v>
+        <v>260822.4240373617</v>
       </c>
     </row>
   </sheetData>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="E4" t="n">
-        <v>90.32465279067513</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067512</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>553.1579979720842</v>
+        <v>553.1579979720841</v>
       </c>
       <c r="M4" t="n">
-        <v>90.32465279067513</v>
+        <v>90.32465279067526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>329.8025564551829</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.4689403180539102</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27593,13 +27593,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>115.4622864852429</v>
+        <v>167.8674643332928</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,13 +27618,13 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>103.6834669398975</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>15.12252820519075</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>11.21953103135814</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>30.92593179381498</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>131.3039423801143</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>99.12522289949018</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300484</v>
+        <v>49.30537163726024</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>306.2096305948396</v>
+        <v>10.70163254908659</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>522.0635703700256</v>
@@ -34950,16 +34950,16 @@
         <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537975</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>442.699326906411</v>
+        <v>185.9463254238301</v>
       </c>
       <c r="L8" t="n">
         <v>719.7892927396343</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>435.3350991233252</v>
       </c>
       <c r="O9" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>688.3272054397147</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>254.0184745792274</v>
       </c>
       <c r="L21" t="n">
         <v>667.7658302215033</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>227.9168455757764</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>176.8444622371211</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,7 +36925,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>478.6370371299984</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -36934,7 +36934,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>334.9489582841758</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>328.3029864149263</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>370.8892755450506</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
